--- a/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
+++ b/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\bldgs\CpUDSC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A2ECDA-E225-4F66-9BC2-D5ABD878918F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19425" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,19 @@
     <sheet name="Future Trend" sheetId="4" r:id="rId3"/>
     <sheet name="CpUDSC" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>CpUDSC Cost per Unit Distributed Solar Capacity</t>
   </si>
@@ -82,9 +95,6 @@
     <t>Tracking the Sun IX</t>
   </si>
   <si>
-    <t>https://emp.lbl.gov/sites/all/files/tracking_the_sun_ix_report_0.pdf</t>
-  </si>
-  <si>
     <t>Page 23, Figure 13</t>
   </si>
   <si>
@@ -113,17 +123,49 @@
   </si>
   <si>
     <t>Cost and Performance Data for Power Generation Technologies</t>
+  </si>
+  <si>
+    <t>https://emp.lbl.gov/sites/all/files/tracking_the_sun_ix_report.pdf</t>
+  </si>
+  <si>
+    <t>2015 USD to 2015 CAD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">see </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cpi.xlsx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for data</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +216,27 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,7 +381,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -361,27 +424,32 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Body: normal cell" xfId="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: all except top row" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="4"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: top rows" xfId="6"/>
+    <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Header: top rows" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="7"/>
+    <cellStyle name="Hyperlink 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="8"/>
-    <cellStyle name="Section Break" xfId="9"/>
-    <cellStyle name="Section Break: parent row" xfId="10"/>
-    <cellStyle name="Table title" xfId="11"/>
+    <cellStyle name="Parent row" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Section Break" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Table title" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -430,7 +498,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,9 +531,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,6 +583,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,22 +775,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.08984375" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,94 +800,110 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>2015</v>
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.3900999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -793,12 +913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -810,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,8 +960,8 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <f>A2/A6</f>
-        <v>4.6565774155995348</v>
+        <f>A2/A6*About!A25</f>
+        <v>6.473108265424913</v>
       </c>
     </row>
   </sheetData>
@@ -849,42 +971,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2015</v>
       </c>
@@ -892,7 +1014,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2020</v>
       </c>
@@ -900,7 +1022,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2025</v>
       </c>
@@ -908,7 +1030,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2030</v>
       </c>
@@ -916,7 +1038,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2035</v>
       </c>
@@ -924,7 +1046,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2040</v>
       </c>
@@ -932,7 +1054,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2045</v>
       </c>
@@ -940,7 +1062,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2050</v>
       </c>
@@ -948,18 +1070,18 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -970,7 +1092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -983,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
@@ -996,7 +1118,7 @@
         <v>0.97281105990783412</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2017</v>
       </c>
@@ -1009,7 +1131,7 @@
         <v>0.94562211981566824</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2018</v>
       </c>
@@ -1022,7 +1144,7 @@
         <v>0.91843317972350236</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2019</v>
       </c>
@@ -1035,7 +1157,7 @@
         <v>0.89124423963133637</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2020</v>
       </c>
@@ -1048,7 +1170,7 @@
         <v>0.86405529953917048</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2021</v>
       </c>
@@ -1061,7 +1183,7 @@
         <v>0.85069124423963138</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2022</v>
       </c>
@@ -1074,7 +1196,7 @@
         <v>0.83732718894009217</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2023</v>
       </c>
@@ -1087,7 +1209,7 @@
         <v>0.82396313364055296</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2024</v>
       </c>
@@ -1100,7 +1222,7 @@
         <v>0.81059907834101386</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>2025</v>
       </c>
@@ -1113,7 +1235,7 @@
         <v>0.79723502304147464</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2026</v>
       </c>
@@ -1126,7 +1248,7 @@
         <v>0.78940092165898612</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2027</v>
       </c>
@@ -1139,7 +1261,7 @@
         <v>0.78156682027649771</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2028</v>
       </c>
@@ -1152,7 +1274,7 @@
         <v>0.77373271889400919</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2029</v>
       </c>
@@ -1165,7 +1287,7 @@
         <v>0.76589861751152077</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>2030</v>
       </c>
@@ -1178,7 +1300,7 @@
         <v>0.75806451612903225</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2031</v>
       </c>
@@ -1191,7 +1313,7 @@
         <v>0.75345622119815669</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2032</v>
       </c>
@@ -1204,7 +1326,7 @@
         <v>0.74884792626728114</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2033</v>
       </c>
@@ -1217,7 +1339,7 @@
         <v>0.74423963133640558</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2034</v>
       </c>
@@ -1230,7 +1352,7 @@
         <v>0.73963133640552992</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>2035</v>
       </c>
@@ -1243,7 +1365,7 @@
         <v>0.73502304147465436</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2036</v>
       </c>
@@ -1256,7 +1378,7 @@
         <v>0.7304147465437788</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2037</v>
       </c>
@@ -1269,7 +1391,7 @@
         <v>0.72580645161290325</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2038</v>
       </c>
@@ -1282,7 +1404,7 @@
         <v>0.72119815668202769</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2039</v>
       </c>
@@ -1295,7 +1417,7 @@
         <v>0.71658986175115202</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>2040</v>
       </c>
@@ -1308,7 +1430,7 @@
         <v>0.71198156682027647</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2041</v>
       </c>
@@ -1321,7 +1443,7 @@
         <v>0.70829493087557605</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>2042</v>
       </c>
@@ -1334,7 +1456,7 @@
         <v>0.70460829493087562</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>2043</v>
       </c>
@@ -1347,7 +1469,7 @@
         <v>0.70092165898617509</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>2044</v>
       </c>
@@ -1360,7 +1482,7 @@
         <v>0.69723502304147467</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>2045</v>
       </c>
@@ -1373,7 +1495,7 @@
         <v>0.69354838709677424</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2046</v>
       </c>
@@ -1386,7 +1508,7 @@
         <v>0.68986175115207371</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>2047</v>
       </c>
@@ -1399,7 +1521,7 @@
         <v>0.68617511520737329</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>2048</v>
       </c>
@@ -1412,7 +1534,7 @@
         <v>0.68248847926267286</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>2049</v>
       </c>
@@ -1425,7 +1547,7 @@
         <v>0.67880184331797233</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>2050</v>
       </c>
@@ -1445,7 +1567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1453,338 +1575,338 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
       <c r="B2" s="17">
         <f>'2015 Price'!A9*10^6</f>
-        <v>4656577.4155995343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>6473108.2654249128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
       <c r="B3" s="17">
         <f>B$2*'Future Trend'!C18</f>
-        <v>4529970.0112122661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>6297111.3125861706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
       <c r="B4" s="17">
         <f>B$2*'Future Trend'!C19</f>
-        <v>4403362.6068249978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>6121114.3597474294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
       <c r="B5" s="17">
         <f>B$2*'Future Trend'!C20</f>
-        <v>4276755.2024377296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5945117.4069086872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
       <c r="B6" s="17">
         <f>B$2*'Future Trend'!C21</f>
-        <v>4150147.7980504604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5769120.454069945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
       <c r="B7" s="17">
         <f>B$2*'Future Trend'!C22</f>
-        <v>4023540.3936631922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5593123.5012312029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
       <c r="B8" s="17">
         <f>B$2*'Future Trend'!C23</f>
-        <v>3961309.635574535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5506616.5244121607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
       <c r="B9" s="17">
         <f>B$2*'Future Trend'!C24</f>
-        <v>3899078.8774858774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5420109.5475931186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
       <c r="B10" s="17">
         <f>B$2*'Future Trend'!C25</f>
-        <v>3836848.1193972197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5333602.5707740756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2024</v>
       </c>
       <c r="B11" s="17">
         <f>B$2*'Future Trend'!C26</f>
-        <v>3774617.3613085626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5247095.5939550335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2025</v>
       </c>
       <c r="B12" s="17">
         <f>B$2*'Future Trend'!C27</f>
-        <v>3712386.6032199049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5160588.6171359904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2026</v>
       </c>
       <c r="B13" s="17">
         <f>B$2*'Future Trend'!C28</f>
-        <v>3675906.5036506918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5109877.6307248268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2027</v>
       </c>
       <c r="B14" s="17">
         <f>B$2*'Future Trend'!C29</f>
-        <v>3639426.4040814792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5059166.6443136651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2028</v>
       </c>
       <c r="B15" s="17">
         <f>B$2*'Future Trend'!C30</f>
-        <v>3602946.3045122661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>5008455.6579025015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2029</v>
       </c>
       <c r="B16" s="17">
         <f>B$2*'Future Trend'!C31</f>
-        <v>3566466.2049430534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4957744.6714913389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2030</v>
       </c>
       <c r="B17" s="17">
         <f>B$2*'Future Trend'!C32</f>
-        <v>3529986.1053738403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4907033.6850801762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2031</v>
       </c>
       <c r="B18" s="17">
         <f>B$2*'Future Trend'!C33</f>
-        <v>3508527.2232743036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4877203.6930736098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2032</v>
       </c>
       <c r="B19" s="17">
         <f>B$2*'Future Trend'!C34</f>
-        <v>3487068.3411747664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4847373.7010670435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2033</v>
       </c>
       <c r="B20" s="17">
         <f>B$2*'Future Trend'!C35</f>
-        <v>3465609.4590752297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4817543.7090604771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2034</v>
       </c>
       <c r="B21" s="17">
         <f>B$2*'Future Trend'!C36</f>
-        <v>3444150.5769756921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4787713.7170539098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2035</v>
       </c>
       <c r="B22" s="17">
         <f>B$2*'Future Trend'!C37</f>
-        <v>3422691.6948761554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4757883.7250473434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2036</v>
       </c>
       <c r="B23" s="17">
         <f>B$2*'Future Trend'!C38</f>
-        <v>3401232.8127766182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4728053.733040777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2037</v>
       </c>
       <c r="B24" s="17">
         <f>B$2*'Future Trend'!C39</f>
-        <v>3379773.9306770815</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4698223.7410342107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2038</v>
       </c>
       <c r="B25" s="17">
         <f>B$2*'Future Trend'!C40</f>
-        <v>3358315.0485775443</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4668393.7490276452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2039</v>
       </c>
       <c r="B26" s="17">
         <f>B$2*'Future Trend'!C41</f>
-        <v>3336856.1664780071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4638563.7570210779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2040</v>
       </c>
       <c r="B27" s="17">
         <f>B$2*'Future Trend'!C42</f>
-        <v>3315397.2843784699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4608733.7650145115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2041</v>
       </c>
       <c r="B28" s="17">
         <f>B$2*'Future Trend'!C43</f>
-        <v>3298230.1786988406</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4584869.7714092582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2042</v>
       </c>
       <c r="B29" s="17">
         <f>B$2*'Future Trend'!C44</f>
-        <v>3281063.0730192112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4561005.7778040059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2043</v>
       </c>
       <c r="B30" s="17">
         <f>B$2*'Future Trend'!C45</f>
-        <v>3263895.9673395813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4537141.7841987517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2044</v>
       </c>
       <c r="B31" s="17">
         <f>B$2*'Future Trend'!C46</f>
-        <v>3246728.861659952</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4513277.7905934993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2045</v>
       </c>
       <c r="B32" s="17">
         <f>B$2*'Future Trend'!C47</f>
-        <v>3229561.7559803226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4489413.796988246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2046</v>
       </c>
       <c r="B33" s="17">
         <f>B$2*'Future Trend'!C48</f>
-        <v>3212394.6503006923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4465549.8033829927</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2047</v>
       </c>
       <c r="B34" s="17">
         <f>B$2*'Future Trend'!C49</f>
-        <v>3195227.5446210629</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>4441685.8097777395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2048</v>
       </c>
       <c r="B35" s="17">
         <f>B$2*'Future Trend'!C50</f>
-        <v>3178060.4389414336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4417821.8161724871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2049</v>
       </c>
       <c r="B36" s="17">
         <f>B$2*'Future Trend'!C51</f>
-        <v>3160893.3332618037</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4393957.8225672329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2050</v>
       </c>
       <c r="B37" s="17">
         <f>B$2*'Future Trend'!C52</f>
-        <v>3143726.2275821744</v>
+        <v>4370093.8289619805</v>
       </c>
     </row>
   </sheetData>
